--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -7,14 +7,19 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Valor Óptimo" sheetId="1" r:id="rId1"/>
+    <sheet name="Cargadores de cada tipo" sheetId="2" r:id="rId2"/>
+    <sheet name="Cargadores asignados por día" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="17">
+  <si>
+    <t>2180000.0</t>
+  </si>
   <si>
     <t>Cargador tipo 1</t>
   </si>
@@ -23,6 +28,45 @@
   </si>
   <si>
     <t>Cargador tipo 3</t>
+  </si>
+  <si>
+    <t>Hora 1</t>
+  </si>
+  <si>
+    <t>Hora 2</t>
+  </si>
+  <si>
+    <t>Hora 3</t>
+  </si>
+  <si>
+    <t>Hora 4</t>
+  </si>
+  <si>
+    <t>Hora 5</t>
+  </si>
+  <si>
+    <t>Hora 6</t>
+  </si>
+  <si>
+    <t>Hora 7</t>
+  </si>
+  <si>
+    <t>Hora 8</t>
+  </si>
+  <si>
+    <t>Hora 9</t>
+  </si>
+  <si>
+    <t>Hora 10</t>
+  </si>
+  <si>
+    <t>Tipo 1</t>
+  </si>
+  <si>
+    <t>Tipo 2</t>
+  </si>
+  <si>
+    <t>Tipo 3</t>
   </si>
 </sst>
 </file>
@@ -380,21 +424,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -402,13 +472,1396 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>40</v>
+      </c>
+      <c r="K13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <v>36</v>
+      </c>
+      <c r="D23">
+        <v>37</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>36</v>
+      </c>
+      <c r="K23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>37</v>
+      </c>
+      <c r="D28">
+        <v>38</v>
+      </c>
+      <c r="E28">
+        <v>21</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>36</v>
+      </c>
+      <c r="D33">
+        <v>37</v>
+      </c>
+      <c r="E33">
+        <v>34</v>
+      </c>
+      <c r="F33">
+        <v>24</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>24</v>
+      </c>
+      <c r="K33">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>37</v>
+      </c>
+      <c r="E38">
+        <v>38</v>
+      </c>
+      <c r="F38">
+        <v>14</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>37</v>
+      </c>
+      <c r="K38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>34</v>
+      </c>
+      <c r="C43">
+        <v>39</v>
+      </c>
+      <c r="D43">
+        <v>38</v>
+      </c>
+      <c r="E43">
+        <v>26</v>
+      </c>
+      <c r="F43">
+        <v>17</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>38</v>
+      </c>
+      <c r="K43">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>38</v>
+      </c>
+      <c r="C48">
+        <v>40</v>
+      </c>
+      <c r="D48">
+        <v>36</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <v>16</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>36</v>
+      </c>
+      <c r="K48">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
